--- a/outputs-GTDB-r202/f__UBA932.xlsx
+++ b/outputs-GTDB-r202/f__UBA932.xlsx
@@ -752,7 +752,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>g__UBA1232</t>
+          <t>g__UBA1232(reject)</t>
         </is>
       </c>
     </row>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>g__RC9</t>
+          <t>g__RC9(reject)</t>
         </is>
       </c>
     </row>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>g__UBA1232</t>
+          <t>g__UBA1232(reject)</t>
         </is>
       </c>
     </row>
